--- a/biology/Zoologie/Hysterochelifer_tuberculatus/Hysterochelifer_tuberculatus.xlsx
+++ b/biology/Zoologie/Hysterochelifer_tuberculatus/Hysterochelifer_tuberculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hysterochelifer tuberculatus est une espèce de pseudoscorpions de la famille des Cheliferidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Tunisie, en Algérie, au Maroc, en Espagne, en France, en Suisse, en Italie, à Malte, en Croatie, en Bosnie-Herzégovine, au Monténégro, en Grèce, en Bulgarie, en Turquie, en Israël et en Jordanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Tunisie, en Algérie, au Maroc, en Espagne, en France, en Suisse, en Italie, à Malte, en Croatie, en Bosnie-Herzégovine, au Monténégro, en Grèce, en Bulgarie, en Turquie, en Israël et en Jordanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Hysterochelifer tuberculatus ibericus Beier, 1955
 Hysterochelifer tuberculatus tuberculatus (Lucas, 1849)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lucas, 1849 : Histoire naturelle des animaux articulés. Crustacés, Arachnides, Myriapodes et Hexapodes. Exploration scientifique de l’Algérie pendant les années 1840, 1841, 1842. Sciences  physiques.  Zoologie, vol. 1, p. 1-403 (texte intégral).
 Beier, 1955 : Neue Beitrage zur Kenntnis der Iberischen Pseudoscorpioniden-Fauna. Eos, vol. 31, p. 87-122.</t>
